--- a/Recruit.xlsx
+++ b/Recruit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32490" windowHeight="17520"/>
+    <workbookView windowWidth="27690" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
   <si>
     <t>序号</t>
   </si>
@@ -160,6 +160,9 @@
     <t>嵌入式Linux</t>
   </si>
   <si>
+    <t>初筛—7/31</t>
+  </si>
+  <si>
     <t>https://talent.baidu.com/jobs/detail/GRADUATE/e090ce89-6d09-4d4c-9bcb-9d3bd674eb14</t>
   </si>
   <si>
@@ -193,6 +196,9 @@
     <t>嵌入式开发工程师</t>
   </si>
   <si>
+    <t>过笔，简历复筛—7/31</t>
+  </si>
+  <si>
     <t>https://campus.iflytek.com/official-pc/delivery</t>
   </si>
   <si>
@@ -200,6 +206,9 @@
   </si>
   <si>
     <t>未来星-空调软件研发工程师-大家电空调部</t>
+  </si>
+  <si>
+    <t>还在筛—7/31</t>
   </si>
   <si>
     <t>https://xiaomi.jobs.f.mioffice.cn/futurestar/position/application?spread=CYS1N4Y</t>
@@ -281,8 +290,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -302,7 +311,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,18 +332,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,9 +362,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,39 +387,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +402,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,6 +430,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -429,13 +445,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -446,43 +455,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,139 +629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,41 +684,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,6 +705,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -739,6 +733,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -774,94 +783,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,52 +879,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,10 +1307,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1310,7 +1319,7 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.3416666666667" customWidth="1"/>
     <col min="4" max="4" width="11.8583333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.8416666666667" customWidth="1"/>
+    <col min="5" max="5" width="19.1333333333333" customWidth="1"/>
     <col min="7" max="7" width="11.85" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1609,10 +1618,12 @@
       <c r="D15" s="4">
         <v>45132</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1620,18 +1631,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="4">
         <v>45132</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1639,10 +1652,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4">
         <v>45132</v>
@@ -1652,7 +1665,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1660,10 +1673,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="4">
         <v>45132</v>
@@ -1671,7 +1684,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1679,18 +1692,20 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="4">
         <v>45132</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1698,18 +1713,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="4">
         <v>45132</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F20" s="3"/>
       <c r="G20" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1717,18 +1734,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4">
         <v>45132</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F21" s="3"/>
       <c r="G21" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1736,10 +1755,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4">
         <v>45132</v>
@@ -1755,18 +1774,18 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1774,10 +1793,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4">
         <v>45132</v>
@@ -1785,7 +1804,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1793,7 +1812,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>8</v>
@@ -1806,7 +1825,7 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1814,7 +1833,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>8</v>
@@ -1833,7 +1852,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>8</v>
@@ -1841,10 +1860,12 @@
       <c r="D27" s="4">
         <v>45132</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1852,7 +1873,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>8</v>
@@ -1865,7 +1886,7 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1873,7 +1894,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>8</v>
@@ -1881,10 +1902,12 @@
       <c r="D29" s="4">
         <v>45132</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1892,10 +1915,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D30" s="4">
         <v>45132</v>
@@ -1911,10 +1934,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D31" s="4">
         <v>45132</v>
@@ -1930,10 +1953,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D32" s="4">
         <v>45132</v>
@@ -2086,6 +2109,149 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Recruit.xlsx
+++ b/Recruit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="88">
   <si>
     <t>序号</t>
   </si>
@@ -317,9 +317,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,10 +331,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,18 +371,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,9 +394,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,13 +425,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -409,42 +432,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -455,187 +455,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,6 +690,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -705,20 +723,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,21 +768,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -763,165 +778,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1310,7 +1310,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1559,7 +1559,9 @@
       <c r="D12" s="4">
         <v>45126</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="8" t="s">
         <v>38</v>
